--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-12-09 10:03:34</t>
+          <t>2021-12-13 14:24:56</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021-12-09 12:25:53</t>
+          <t>2021-12-10 19:49:34</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1046.0</t>
+          <t>1044.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021-12-09 11:51:40</t>
+          <t>2021-12-11 16:24:22</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1046.0</t>
+          <t>1044.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1039.0</t>
+          <t>1038.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021-12-09 07:27:20</t>
+          <t>2021-12-10 15:39:26</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1046.0</t>
+          <t>1044.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021-12-09 10:02:36</t>
+          <t>2021-12-10 13:10:31</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1051.0</t>
+          <t>1050.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021-12-08 21:14:27</t>
+          <t>2021-12-15 20:11:14</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1044.0</t>
+          <t>1045.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1038.0</t>
+          <t>1039.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1044.0</t>
+          <t>1045.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1044.0</t>
+          <t>1045.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1044.0</t>
+          <t>1045.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021-12-08 23:21:59</t>
+          <t>2021-12-15 23:56:44</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1044.0</t>
+          <t>1045.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1044.0</t>
+          <t>1045.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1051.0</t>
+          <t>1052.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1052.0</t>
+          <t>1053.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1046.0</t>
+          <t>1047.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1052.0</t>
+          <t>1053.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>1052.0</t>
+          <t>1053.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1050.0</t>
+          <t>1051.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1050.0</t>
+          <t>1051.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1052.0</t>
+          <t>1053.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1044.0</t>
+          <t>1045.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1038.0</t>
+          <t>1039.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-12-09 15:44:00</t>
+          <t>2021-12-16 14:56:18</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1044.0</t>
+          <t>1045.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021-12-10 19:49:34</t>
+          <t>2021-12-17 09:10:12</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1044.0</t>
+          <t>1045.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021-12-11 16:24:22</t>
+          <t>2021-12-16 09:12:43</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1044.0</t>
+          <t>1046.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021-12-09 17:53:55</t>
+          <t>2021-12-17 08:41:21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1044.0</t>
+          <t>1045.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021-12-09 17:43:26</t>
+          <t>2021-12-16 10:17:59</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1044.0</t>
+          <t>1046.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021-12-09 17:08:35</t>
+          <t>2021-12-16 13:10:08</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021-12-09 17:13:46</t>
+          <t>2021-12-16 13:05:45</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1044.0</t>
+          <t>1045.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021-12-09 17:10:02</t>
+          <t>2021-12-16 13:06:36</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1042.0</t>
+          <t>1043.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021-12-09 17:18:36</t>
+          <t>2021-12-16 13:02:28</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1038.0</t>
+          <t>1039.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021-12-09 17:12:03</t>
+          <t>2021-12-16 13:02:07</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1044.0</t>
+          <t>1045.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1044.0</t>
+          <t>1045.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1055.0</t>
+          <t>1056.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021-12-09 14:09:42</t>
+          <t>2021-12-16 15:05:54</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1050.0</t>
+          <t>1051.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1052.0</t>
+          <t>1053.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>1052.0</t>
+          <t>1053.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021-12-10 13:10:31</t>
+          <t>2021-12-16 12:55:55</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1050.0</t>
+          <t>1051.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>1052.0</t>
+          <t>1053.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021-12-09 12:30:28</t>
+          <t>2021-12-16 13:59:00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021-12-09 01:49:14</t>
+          <t>2021-12-16 13:48:45</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1052.0</t>
+          <t>1054.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021-12-16 09:12:43</t>
+          <t>2021-12-18 15:32:02</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1046.0</t>
+          <t>1045.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>1046.0</t>
+          <t>1047.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-12-13 14:24:56</t>
+          <t>2021-12-21 14:25:54</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1045.0</t>
+          <t>1044.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021-12-17 09:10:12</t>
+          <t>2021-12-21 12:38:53</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1045.0</t>
+          <t>1046.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-12-09 13:26:03</t>
+          <t>2021-12-21 15:07:51</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1046.0</t>
+          <t>1044.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-12-21 14:25:54</t>
+          <t>2021-12-23 07:09:04</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1044.0</t>
+          <t>1050.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-12-08 20:30:58</t>
+          <t>2021-12-23 00:05:42</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1044.0</t>
+          <t>1051.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-12-09 00:03:36</t>
+          <t>2021-12-23 00:14:50</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1039.0</t>
+          <t>1045.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-12-09 07:03:57</t>
+          <t>2021-12-23 06:48:11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1045.0</t>
+          <t>1051.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021-12-08 23:31:58</t>
+          <t>2021-12-22 23:39:07</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1045.0</t>
+          <t>1051.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021-12-08 23:59:36</t>
+          <t>2021-12-22 23:45:57</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1045.0</t>
+          <t>1051.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021-12-15 20:11:14</t>
+          <t>2021-12-22 21:06:07</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021-12-10 15:39:26</t>
+          <t>2021-12-23 07:41:31</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1045.0</t>
+          <t>1051.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021-12-09 00:33:56</t>
+          <t>2021-12-22 23:47:05</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1052.0</t>
+          <t>1059.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021-12-09 02:15:20</t>
+          <t>2021-12-23 02:46:42</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1053.0</t>
+          <t>1060.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021-12-09 04:21:18</t>
+          <t>2021-12-22 23:37:14</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1047.0</t>
+          <t>1054.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021-12-09 00:09:48</t>
+          <t>2021-12-23 07:55:29</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1053.0</t>
+          <t>1060.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021-12-08 23:44:48</t>
+          <t>2021-12-22 23:47:54</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>1053.0</t>
+          <t>1060.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021-12-09 00:04:29</t>
+          <t>2021-12-23 00:09:55</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1051.0</t>
+          <t>1058.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021-12-09 08:13:14</t>
+          <t>2021-12-23 00:00:11</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>1047.0</t>
+          <t>1054.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021-12-09 00:00:25</t>
+          <t>2021-12-22 23:43:28</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1051.0</t>
+          <t>1058.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021-12-09 07:04:22</t>
+          <t>2021-12-23 06:55:10</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1053.0</t>
+          <t>1060.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-12-09 00:02:10</t>
+          <t>2021-12-23 16:20:20</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1045.0</t>
+          <t>1051.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-12-09 15:43:22</t>
+          <t>2021-12-23 17:40:09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1039.0</t>
+          <t>1045.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-12-16 14:56:18</t>
+          <t>2021-12-23 17:40:46</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021-12-09 08:04:44</t>
+          <t>2021-12-23 08:30:51</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1045.0</t>
+          <t>1051.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021-12-09 08:31:18</t>
+          <t>2021-12-23 09:29:41</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021-12-21 12:38:53</t>
+          <t>2021-12-23 09:24:22</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1046.0</t>
+          <t>1051.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021-12-18 15:32:02</t>
+          <t>2021-12-23 20:00:57</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1045.0</t>
+          <t>1051.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021-12-17 08:41:21</t>
+          <t>2021-12-23 09:46:50</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1045.0</t>
+          <t>1051.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021-12-16 10:17:59</t>
+          <t>2021-12-23 10:10:26</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1046.0</t>
+          <t>1052.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-12-21 15:07:51</t>
+          <t>2021-12-23 19:09:38</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1044.0</t>
+          <t>1052.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021-12-16 13:10:08</t>
+          <t>2021-12-23 09:55:22</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1042.0</t>
+          <t>1048.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021-12-16 13:05:45</t>
+          <t>2021-12-23 09:56:06</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1045.0</t>
+          <t>1051.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021-12-16 13:06:36</t>
+          <t>2021-12-23 09:56:08</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1043.0</t>
+          <t>1049.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021-12-16 13:02:28</t>
+          <t>2021-12-23 09:56:55</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1039.0</t>
+          <t>1045.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021-12-16 13:02:07</t>
+          <t>2021-12-23 10:10:33</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1045.0</t>
+          <t>1051.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021-12-09 08:27:50</t>
+          <t>2021-12-23 15:12:31</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1044.0</t>
+          <t>1051.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021-12-09 09:01:49</t>
+          <t>2021-12-23 09:02:37</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1045.0</t>
+          <t>1051.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021-12-09 07:03:18</t>
+          <t>2021-12-23 10:10:57</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1056.0</t>
+          <t>1061.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021-12-09 09:30:53</t>
+          <t>2021-12-23 09:30:28</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1045.0</t>
+          <t>1051.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021-12-16 15:05:54</t>
+          <t>2021-12-23 16:08:47</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021-12-09 11:56:40</t>
+          <t>2021-12-23 08:43:23</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1053.0</t>
+          <t>1060.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021-12-09 14:36:54</t>
+          <t>2021-12-23 10:31:07</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>1053.0</t>
+          <t>1060.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021-12-16 12:55:55</t>
+          <t>2021-12-23 13:01:15</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1051.0</t>
+          <t>1058.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021-12-09 08:28:37</t>
+          <t>2021-12-23 11:23:14</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>1053.0</t>
+          <t>1060.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021-12-16 13:48:45</t>
+          <t>2021-12-23 09:52:25</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1054.0</t>
+          <t>1059.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021-12-15 23:56:44</t>
+          <t>2021-12-23 21:26:39</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021-12-16 13:59:00</t>
+          <t>2021-12-24 11:44:07</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>1053.0</t>
+          <t>1060.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021-12-23 09:52:25</t>
+          <t>2021-12-27 03:06:14</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1059.0</t>
+          <t>1060.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-12-23 07:09:04</t>
+          <t>2021-12-27 13:38:14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1050.0</t>
+          <t>1051.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021-12-09 15:02:52</t>
+          <t>2021-12-27 16:23:50</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1051.0</t>
+          <t>1058.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-12-27 13:38:14</t>
+          <t>2021-12-28 12:44:06</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021-12-22 21:06:07</t>
+          <t>2021-12-29 20:03:21</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-12-28 12:44:06</t>
+          <t>2021-12-30 07:52:54</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1051.0</t>
+          <t>1058.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-12-23 16:20:20</t>
+          <t>2021-12-29 23:52:37</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1051.0</t>
+          <t>1058.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-12-23 17:40:09</t>
+          <t>2021-12-30 14:46:01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1045.0</t>
+          <t>1052.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-12-23 17:40:46</t>
+          <t>2021-12-30 14:46:40</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-12-23 00:05:42</t>
+          <t>2021-12-30 13:22:27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1051.0</t>
+          <t>1058.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-12-23 00:14:50</t>
+          <t>2021-12-30 00:07:36</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1045.0</t>
+          <t>1052.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-12-23 06:48:11</t>
+          <t>2021-12-30 06:56:16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1051.0</t>
+          <t>1058.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021-12-23 08:30:51</t>
+          <t>2021-12-30 09:58:17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1051.0</t>
+          <t>1058.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021-12-23 09:29:41</t>
+          <t>2021-12-30 14:19:56</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021-12-23 09:24:22</t>
+          <t>2021-12-31 16:34:40</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1051.0</t>
+          <t>1059.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021-12-23 20:00:57</t>
+          <t>2021-12-30 10:11:47</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1051.0</t>
+          <t>1058.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021-12-23 09:46:50</t>
+          <t>2021-12-30 09:55:20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1051.0</t>
+          <t>1058.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021-12-23 10:10:26</t>
+          <t>2021-12-30 14:11:19</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1052.0</t>
+          <t>1058.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-12-23 19:09:38</t>
+          <t>2021-12-30 10:47:22</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1052.0</t>
+          <t>1058.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021-12-23 09:55:22</t>
+          <t>2021-12-30 09:58:25</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1048.0</t>
+          <t>1056.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021-12-23 09:56:06</t>
+          <t>2021-12-30 09:59:39</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1051.0</t>
+          <t>1058.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021-12-23 09:56:08</t>
+          <t>2021-12-30 09:58:10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1049.0</t>
+          <t>1056.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021-12-23 09:56:55</t>
+          <t>2021-12-30 10:04:07</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1045.0</t>
+          <t>1052.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021-12-23 10:10:33</t>
+          <t>2021-12-31 11:05:05</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1051.0</t>
+          <t>1058.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021-12-23 15:12:31</t>
+          <t>2021-12-30 08:26:42</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1051.0</t>
+          <t>1058.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021-12-22 23:39:07</t>
+          <t>2021-12-30 00:19:51</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1051.0</t>
+          <t>1058.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021-12-22 23:45:57</t>
+          <t>2021-12-29 23:47:12</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1051.0</t>
+          <t>1058.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021-12-23 21:26:39</t>
+          <t>2021-12-30 09:17:37</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021-12-23 09:02:37</t>
+          <t>2021-12-30 08:42:52</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1051.0</t>
+          <t>1058.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021-12-23 07:41:31</t>
+          <t>2021-12-30 07:20:58</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1051.0</t>
+          <t>1058.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021-12-23 10:10:57</t>
+          <t>2021-12-30 09:07:08</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1061.0</t>
+          <t>1068.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021-12-23 09:30:28</t>
+          <t>2021-12-30 09:18:59</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1051.0</t>
+          <t>1058.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021-12-23 16:08:47</t>
+          <t>2021-12-30 13:43:24</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021-12-27 16:23:50</t>
+          <t>2021-12-30 14:53:50</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1058.0</t>
+          <t>1065.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021-12-22 23:47:05</t>
+          <t>2021-12-30 00:18:54</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1059.0</t>
+          <t>1066.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021-12-23 02:46:42</t>
+          <t>2021-12-29 23:57:46</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1060.0</t>
+          <t>1067.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021-12-22 23:37:14</t>
+          <t>2021-12-30 00:08:24</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1054.0</t>
+          <t>1061.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021-12-23 07:55:29</t>
+          <t>2021-12-30 01:19:49</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1060.0</t>
+          <t>1067.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021-12-22 23:47:54</t>
+          <t>2021-12-29 23:46:32</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>1060.0</t>
+          <t>1067.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021-12-23 00:09:55</t>
+          <t>2021-12-30 00:25:47</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1058.0</t>
+          <t>1065.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021-12-23 00:00:11</t>
+          <t>2021-12-30 06:23:31</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>1054.0</t>
+          <t>1061.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021-12-23 08:43:23</t>
+          <t>2021-12-30 07:49:31</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1060.0</t>
+          <t>1067.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021-12-23 10:31:07</t>
+          <t>2021-12-30 08:59:07</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>1060.0</t>
+          <t>1067.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021-12-22 23:43:28</t>
+          <t>2021-12-29 23:58:08</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1058.0</t>
+          <t>1065.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021-12-23 06:55:10</t>
+          <t>2021-12-30 06:56:08</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1060.0</t>
+          <t>1067.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021-12-23 13:01:15</t>
+          <t>2021-12-30 09:58:16</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1058.0</t>
+          <t>1064.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021-12-23 11:23:14</t>
+          <t>2021-12-30 10:29:59</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>1060.0</t>
+          <t>1067.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021-12-24 11:44:07</t>
+          <t>2021-12-30 08:36:33</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>1060.0</t>
+          <t>1067.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021-12-27 03:06:14</t>
+          <t>2021-12-30 03:36:53</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1060.0</t>
+          <t>1067.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -5418,7 +5418,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021-12-30 00:25:47</t>
+          <t>2022-01-03 17:23:49</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-12-30 07:52:54</t>
+          <t>2022-01-04 10:05:52</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1058.0</t>
+          <t>1059.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-01-04 10:05:52</t>
+          <t>2022-01-06 07:07:22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1059.0</t>
+          <t>1069.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-12-29 23:52:37</t>
+          <t>2022-01-05 23:01:48</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1058.0</t>
+          <t>1068.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-12-30 13:22:27</t>
+          <t>2022-01-06 00:27:30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1058.0</t>
+          <t>1068.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-12-30 00:07:36</t>
+          <t>2022-01-06 00:42:15</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1052.0</t>
+          <t>1062.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-12-30 06:56:16</t>
+          <t>2022-01-06 07:04:08</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1058.0</t>
+          <t>1068.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021-12-02 01:16:54</t>
+          <t>2022-01-06 00:05:05</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021-12-30 14:19:56</t>
+          <t>2022-01-06 08:16:51</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021-12-30 00:19:51</t>
+          <t>2022-01-05 23:58:45</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1058.0</t>
+          <t>1068.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021-12-29 23:47:12</t>
+          <t>2022-01-05 23:48:28</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1058.0</t>
+          <t>1068.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021-12-30 09:17:37</t>
+          <t>2022-01-06 07:29:44</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021-12-29 20:03:21</t>
+          <t>2022-01-05 21:32:35</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021-12-30 07:20:58</t>
+          <t>2022-01-06 07:49:51</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1058.0</t>
+          <t>1068.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021-12-30 00:18:54</t>
+          <t>2022-01-05 23:58:43</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1066.0</t>
+          <t>1076.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021-12-29 23:57:46</t>
+          <t>2022-01-06 00:00:12</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1067.0</t>
+          <t>1077.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021-12-30 00:08:24</t>
+          <t>2022-01-06 00:00:13</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1061.0</t>
+          <t>1071.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021-12-30 01:19:49</t>
+          <t>2022-01-06 00:30:00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1067.0</t>
+          <t>1077.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021-12-29 23:46:32</t>
+          <t>2022-01-05 23:46:19</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>1067.0</t>
+          <t>1077.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-01-03 17:23:49</t>
+          <t>2022-01-05 23:52:37</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1065.0</t>
+          <t>1075.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021-12-30 06:23:31</t>
+          <t>2022-01-06 00:37:40</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>1061.0</t>
+          <t>1071.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021-12-30 07:49:31</t>
+          <t>2022-01-06 07:08:37</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1067.0</t>
+          <t>1077.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021-12-30 08:59:07</t>
+          <t>2022-01-06 07:51:15</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>1067.0</t>
+          <t>1077.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021-12-29 23:58:08</t>
+          <t>2022-01-06 06:33:26</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1065.0</t>
+          <t>1075.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021-12-30 06:56:08</t>
+          <t>2022-01-06 06:56:59</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1067.0</t>
+          <t>1077.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021-12-30 03:36:53</t>
+          <t>2022-01-06 02:55:17</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1067.0</t>
+          <t>1077.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-12-30 14:46:01</t>
+          <t>2022-01-06 16:53:21</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1052.0</t>
+          <t>1062.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-12-30 14:46:40</t>
+          <t>2022-01-06 16:53:50</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021-12-30 09:58:17</t>
+          <t>2022-01-06 14:12:17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1058.0</t>
+          <t>1068.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021-12-31 16:34:40</t>
+          <t>2022-01-06 12:46:37</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1059.0</t>
+          <t>1068.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021-12-30 10:11:47</t>
+          <t>2022-01-06 10:30:58</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1058.0</t>
+          <t>1068.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021-12-30 09:55:20</t>
+          <t>2022-01-06 09:44:10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1058.0</t>
+          <t>1068.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021-12-30 14:11:19</t>
+          <t>2022-01-06 11:06:50</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1058.0</t>
+          <t>1068.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-12-30 10:47:22</t>
+          <t>2022-01-06 12:25:32</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1058.0</t>
+          <t>1068.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021-12-30 09:58:25</t>
+          <t>2022-01-06 09:55:33</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1056.0</t>
+          <t>1066.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021-12-30 09:59:39</t>
+          <t>2022-01-06 10:01:18</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1058.0</t>
+          <t>1068.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021-12-30 09:58:10</t>
+          <t>2022-01-06 09:55:36</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1056.0</t>
+          <t>1066.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021-12-30 10:04:07</t>
+          <t>2022-01-06 10:04:18</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1052.0</t>
+          <t>1062.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021-12-31 11:05:05</t>
+          <t>2022-01-06 16:40:04</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1058.0</t>
+          <t>1068.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021-12-30 08:42:52</t>
+          <t>2022-01-06 09:56:53</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1058.0</t>
+          <t>1068.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021-12-30 09:07:08</t>
+          <t>2022-01-06 09:52:51</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021-12-30 09:18:59</t>
+          <t>2022-01-06 09:36:21</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1058.0</t>
+          <t>1068.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021-12-30 13:43:24</t>
+          <t>2022-01-06 16:13:38</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021-12-30 14:53:50</t>
+          <t>2022-01-06 14:55:25</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1065.0</t>
+          <t>1075.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021-12-30 09:58:16</t>
+          <t>2022-01-06 09:54:52</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1064.0</t>
+          <t>1074.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021-12-30 10:29:59</t>
+          <t>2022-01-06 08:52:12</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>1067.0</t>
+          <t>1077.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021-12-30 08:36:33</t>
+          <t>2022-01-06 09:25:05</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>1067.0</t>
+          <t>1077.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1069.0</t>
+          <t>1068.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021-12-30 08:26:42</t>
+          <t>2022-01-07 10:02:33</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1058.0</t>
+          <t>1068.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-01-06 07:29:44</t>
+          <t>2022-01-07 20:03:01</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-01-06 07:07:22</t>
+          <t>2022-01-10 14:19:18</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1068.0</t>
+          <t>1069.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021-11-30 16:50:23</t>
+          <t>2022-01-10 18:38:44</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-01-10 14:19:18</t>
+          <t>2022-01-11 14:00:06</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1069.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-01-11 14:00:06</t>
+          <t>2022-01-13 07:19:18</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1072.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-01-05 23:01:48</t>
+          <t>2022-01-13 00:09:03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1068.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-01-06 00:27:30</t>
+          <t>2022-01-12 23:37:21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1068.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-01-06 07:04:08</t>
+          <t>2022-01-13 07:00:20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1068.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-01-06 00:05:05</t>
+          <t>2022-01-13 00:07:58</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-01-06 08:16:51</t>
+          <t>2022-01-12 17:53:56</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-01-05 23:58:45</t>
+          <t>2022-01-12 23:53:09</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1068.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-01-05 23:48:28</t>
+          <t>2022-01-12 23:46:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1068.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-01-05 21:32:35</t>
+          <t>2022-01-12 20:57:43</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-01-06 07:49:51</t>
+          <t>2022-01-13 07:17:26</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1068.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-01-05 23:58:43</t>
+          <t>2022-01-13 00:04:55</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1076.0</t>
+          <t>1078.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-01-06 00:00:12</t>
+          <t>2022-01-13 00:12:42</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1077.0</t>
+          <t>1079.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-01-06 00:00:13</t>
+          <t>2022-01-12 23:25:21</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1071.0</t>
+          <t>1073.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-01-06 00:30:00</t>
+          <t>2022-01-13 07:30:36</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1077.0</t>
+          <t>1079.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-01-05 23:46:19</t>
+          <t>2022-01-13 05:29:05</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>1077.0</t>
+          <t>1079.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-01-05 23:52:37</t>
+          <t>2022-01-13 00:02:30</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1075.0</t>
+          <t>1077.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-01-06 00:37:40</t>
+          <t>2022-01-12 23:53:08</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>1071.0</t>
+          <t>1073.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-01-06 07:08:37</t>
+          <t>2022-01-13 07:55:49</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1077.0</t>
+          <t>1079.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-01-13 07:19:18</t>
+          <t>2022-01-14 14:11:26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-01-06 16:53:21</t>
+          <t>2022-01-13 14:12:40</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1062.0</t>
+          <t>1064.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-01-06 16:53:50</t>
+          <t>2022-01-13 14:14:38</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-01-06 00:42:15</t>
+          <t>2022-01-13 09:54:04</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1062.0</t>
+          <t>1064.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-01-06 14:12:17</t>
+          <t>2022-01-13 11:29:25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1068.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-01-06 12:46:37</t>
+          <t>2022-01-13 08:46:09</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1068.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-01-06 10:30:58</t>
+          <t>2022-01-13 11:09:25</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1068.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-01-06 09:44:10</t>
+          <t>2022-01-13 09:20:50</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1068.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-01-06 11:06:50</t>
+          <t>2022-01-13 10:01:23</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1068.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-01-06 12:25:32</t>
+          <t>2022-01-13 11:07:21</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1068.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-01-06 09:55:33</t>
+          <t>2022-01-13 09:52:42</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1066.0</t>
+          <t>1068.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-01-06 10:01:18</t>
+          <t>2022-01-13 10:06:36</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1068.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-01-06 09:55:36</t>
+          <t>2022-01-13 10:11:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1066.0</t>
+          <t>1068.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-01-06 10:04:18</t>
+          <t>2022-01-13 10:01:34</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1062.0</t>
+          <t>1064.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-01-06 16:40:04</t>
+          <t>2022-01-13 10:00:15</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1068.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-01-07 10:02:33</t>
+          <t>2022-01-13 08:51:47</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1068.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-01-07 20:03:01</t>
+          <t>2022-01-13 09:31:18</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-01-06 09:56:53</t>
+          <t>2022-01-13 09:19:22</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1068.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-01-06 09:52:51</t>
+          <t>2022-01-13 08:43:42</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1068.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-01-06 09:36:21</t>
+          <t>2022-01-13 10:02:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1068.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-01-06 14:55:25</t>
+          <t>2022-01-13 17:08:21</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1075.0</t>
+          <t>1077.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-01-06 07:51:15</t>
+          <t>2022-01-13 13:21:52</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>1077.0</t>
+          <t>1079.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-01-06 06:33:26</t>
+          <t>2022-01-13 10:59:11</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1075.0</t>
+          <t>1077.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-01-06 06:56:59</t>
+          <t>2022-01-14 17:03:59</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1077.0</t>
+          <t>1079.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-01-06 09:54:52</t>
+          <t>2022-01-13 10:03:34</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1074.0</t>
+          <t>1076.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-01-06 08:52:12</t>
+          <t>2022-01-13 14:08:40</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>1077.0</t>
+          <t>1079.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-01-06 09:25:05</t>
+          <t>2022-01-13 10:18:52</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>1077.0</t>
+          <t>1080.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-01-06 02:55:17</t>
+          <t>2022-01-13 11:15:02</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1077.0</t>
+          <t>1080.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-01-13 08:46:09</t>
+          <t>2022-01-15 07:49:55</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1071.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-01-14 14:11:26</t>
+          <t>2022-01-17 14:04:29</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-01-17 14:04:29</t>
+          <t>2022-01-18 14:13:13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-01-18 14:13:13</t>
+          <t>2022-01-20 07:07:15</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-01-12 23:37:21</t>
+          <t>2022-01-19 23:31:30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-01-13 07:00:20</t>
+          <t>2022-01-20 07:05:25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-01-13 00:07:58</t>
+          <t>2022-01-20 00:06:19</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-01-12 23:53:09</t>
+          <t>2022-01-19 23:42:37</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-01-12 23:46:00</t>
+          <t>2022-01-19 23:45:21</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-01-12 20:57:43</t>
+          <t>2022-01-19 20:58:17</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-01-13 07:17:26</t>
+          <t>2022-01-20 07:17:58</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1071.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-01-13 00:04:55</t>
+          <t>2022-01-20 00:52:08</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-01-13 00:12:42</t>
+          <t>2022-01-19 23:51:15</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-01-12 23:25:21</t>
+          <t>2022-01-19 23:59:41</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-01-13 05:29:05</t>
+          <t>2022-01-20 07:41:12</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-01-13 00:02:30</t>
+          <t>2022-01-20 00:01:45</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-01-13 13:21:52</t>
+          <t>2022-01-20 00:14:17</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-01-13 10:59:11</t>
+          <t>2022-01-20 07:25:18</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-01-14 17:03:59</t>
+          <t>2022-01-20 07:35:15</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-01-13 14:12:40</t>
+          <t>2022-01-20 17:30:23</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1064.0</t>
+          <t>1065.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-01-13 14:14:38</t>
+          <t>2022-01-20 17:30:45</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-01-13 09:54:04</t>
+          <t>2022-01-20 09:54:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-01-13 11:29:25</t>
+          <t>2022-01-20 10:59:47</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-01-13 11:09:25</t>
+          <t>2022-01-20 09:34:19</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1071.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-01-13 09:20:50</t>
+          <t>2022-01-20 09:16:31</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1071.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-01-13 10:01:23</t>
+          <t>2022-01-20 12:52:58</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1071.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-01-13 11:07:21</t>
+          <t>2022-01-20 11:17:38</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1071.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-01-13 09:52:42</t>
+          <t>2022-01-20 09:51:42</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1068.0</t>
+          <t>1069.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-01-13 10:06:36</t>
+          <t>2022-01-20 10:04:08</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-01-13 10:11:00</t>
+          <t>2022-01-20 10:10:43</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-01-13 10:01:34</t>
+          <t>2022-01-20 10:02:55</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-01-13 10:00:15</t>
+          <t>2022-01-20 10:00:15</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1071.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-01-13 09:31:18</t>
+          <t>2022-01-20 09:11:50</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-01-13 09:19:22</t>
+          <t>2022-01-20 10:17:09</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1071.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-01-13 08:43:42</t>
+          <t>2022-01-20 10:27:52</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1071.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-01-13 10:02:00</t>
+          <t>2022-01-20 08:57:27</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-01-06 16:13:38</t>
+          <t>2022-01-20 19:08:56</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-01-13 07:30:36</t>
+          <t>2022-01-20 09:47:03</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-01-12 23:53:08</t>
+          <t>2022-01-20 13:14:00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-01-13 07:55:49</t>
+          <t>2022-01-20 08:12:41</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-01-13 10:03:34</t>
+          <t>2022-01-20 10:03:58</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1076.0</t>
+          <t>1077.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-01-13 14:08:40</t>
+          <t>2022-01-20 11:09:36</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-01-13 11:15:02</t>
+          <t>2022-01-20 10:47:27</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1080.0</t>
+          <t>1079.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-01-20 07:07:15</t>
+          <t>2022-01-21 11:52:55</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-01-13 00:09:03</t>
+          <t>2022-01-21 11:18:56</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1065.0</t>
+          <t>1064.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-01-12 17:53:56</t>
+          <t>2022-01-22 10:33:56</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1071.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1071.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-01-20 09:51:42</t>
+          <t>2022-01-21 10:09:49</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1069.0</t>
+          <t>1071.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1064.0</t>
+          <t>1065.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-01-13 08:51:47</t>
+          <t>2022-01-21 13:21:53</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1071.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1071.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1071.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-01-13 17:08:21</t>
+          <t>2022-01-20 21:44:58</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1077.0</t>
+          <t>1076.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -2078,7 +2078,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1071.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-01-21 11:52:55</t>
+          <t>2022-01-27 07:03:13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1072.0</t>
+          <t>1078.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-01-19 23:31:30</t>
+          <t>2022-01-26 23:11:31</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1076.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-01-20 07:05:25</t>
+          <t>2022-01-27 06:50:22</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1076.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-01-19 23:42:37</t>
+          <t>2022-01-26 23:55:46</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1076.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-01-19 23:45:21</t>
+          <t>2022-01-26 23:50:19</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1076.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-01-20 09:11:50</t>
+          <t>2022-01-27 07:09:14</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-01-20 07:17:58</t>
+          <t>2022-01-27 07:16:24</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1077.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-01-20 00:52:08</t>
+          <t>2022-01-27 01:56:36</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1078.0</t>
+          <t>1084.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-01-19 23:51:15</t>
+          <t>2022-01-26 23:54:35</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1079.0</t>
+          <t>1085.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-01-19 23:59:41</t>
+          <t>2022-01-26 23:45:20</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1073.0</t>
+          <t>1079.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-01-20 07:41:12</t>
+          <t>2022-01-26 23:45:58</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>1079.0</t>
+          <t>1085.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-01-20 00:01:45</t>
+          <t>2022-01-27 00:03:19</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1077.0</t>
+          <t>1083.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-01-20 08:12:41</t>
+          <t>2022-01-27 07:24:01</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1079.0</t>
+          <t>1085.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-01-20 07:35:15</t>
+          <t>2022-01-27 07:23:18</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1079.0</t>
+          <t>1085.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-01-20 10:47:27</t>
+          <t>2022-01-27 04:31:13</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1079.0</t>
+          <t>1086.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-01-20 17:30:23</t>
+          <t>2022-01-27 15:37:42</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1064.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-01-20 17:30:45</t>
+          <t>2022-01-27 15:38:25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-01-20 09:54:00</t>
+          <t>2022-01-27 10:03:10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1064.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-01-20 10:59:47</t>
+          <t>2022-01-27 11:09:53</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1076.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-01-22 10:33:56</t>
+          <t>2022-01-27 19:15:35</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-01-15 07:49:55</t>
+          <t>2022-01-27 08:46:57</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1071.0</t>
+          <t>1076.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-01-20 09:34:19</t>
+          <t>2022-01-27 08:29:08</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1076.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-01-20 09:16:31</t>
+          <t>2022-01-27 09:25:09</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1076.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-01-20 12:52:58</t>
+          <t>2022-01-27 10:49:06</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1076.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-01-20 11:17:38</t>
+          <t>2022-01-27 10:22:18</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1071.0</t>
+          <t>1076.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-01-21 10:09:49</t>
+          <t>2022-01-27 16:46:09</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1071.0</t>
+          <t>1074.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-01-20 10:04:08</t>
+          <t>2022-01-27 10:04:49</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1076.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-01-20 10:10:43</t>
+          <t>2022-01-27 10:17:56</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1068.0</t>
+          <t>1074.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-01-20 10:02:55</t>
+          <t>2022-01-27 10:06:33</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1065.0</t>
+          <t>1071.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-01-20 10:00:15</t>
+          <t>2022-01-27 10:00:42</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1076.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-01-21 13:21:53</t>
+          <t>2022-01-27 12:57:20</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1076.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-01-19 20:58:17</t>
+          <t>2022-01-27 11:54:56</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-01-20 10:17:09</t>
+          <t>2022-01-27 09:11:16</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1076.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-01-20 10:27:52</t>
+          <t>2022-01-27 08:37:05</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1071.0</t>
+          <t>1077.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-01-20 08:57:27</t>
+          <t>2022-01-27 09:20:29</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1076.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-01-20 21:44:58</t>
+          <t>2022-01-27 14:56:46</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1077.0</t>
+          <t>1083.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-01-20 09:47:03</t>
+          <t>2022-01-27 08:30:55</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1079.0</t>
+          <t>1085.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-01-20 13:14:00</t>
+          <t>2022-01-27 10:49:30</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>1073.0</t>
+          <t>1079.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-01-20 00:14:17</t>
+          <t>2022-01-27 08:42:42</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>1079.0</t>
+          <t>1085.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-01-20 10:03:58</t>
+          <t>2022-01-27 09:55:59</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1076.0</t>
+          <t>1082.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-01-20 11:09:36</t>
+          <t>2022-01-27 09:03:41</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>1079.0</t>
+          <t>1085.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-01-21 11:18:56</t>
+          <t>2022-01-28 14:28:18</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1076.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1071.0</t>
+          <t>1070.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1077.0</t>
+          <t>1076.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-01-20 07:25:18</t>
+          <t>2022-01-28 08:27:38</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1077.0</t>
+          <t>1083.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-01-27 08:46:57</t>
+          <t>2022-01-29 17:00:12</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1076.0</t>
+          <t>1077.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-01-27 07:03:13</t>
+          <t>2022-01-31 13:59:39</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-01-13 10:18:52</t>
+          <t>2022-01-31 14:20:12</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>1080.0</t>
+          <t>1085.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-01-31 13:59:39</t>
+          <t>2022-02-03 07:17:28</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1078.0</t>
+          <t>1083.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-01-28 14:28:18</t>
+          <t>2022-02-03 00:01:05</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1076.0</t>
+          <t>1082.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-01-26 23:11:31</t>
+          <t>2022-02-03 00:05:16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1076.0</t>
+          <t>1082.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-01-27 10:03:10</t>
+          <t>2022-02-03 00:02:36</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1076.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-01-27 06:50:22</t>
+          <t>2022-02-03 07:11:11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1076.0</t>
+          <t>1082.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-01-27 08:29:08</t>
+          <t>2022-02-03 08:22:56</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1076.0</t>
+          <t>1082.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-01-26 23:55:46</t>
+          <t>2022-02-02 23:59:57</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1076.0</t>
+          <t>1082.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-01-26 23:50:19</t>
+          <t>2022-02-02 23:48:16</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1076.0</t>
+          <t>1082.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-01-27 11:54:56</t>
+          <t>2022-02-02 22:31:45</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-01-27 07:16:24</t>
+          <t>2022-02-03 07:35:33</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1076.0</t>
+          <t>1082.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-01-27 01:56:36</t>
+          <t>2022-02-03 06:33:08</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1084.0</t>
+          <t>1090.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-01-26 23:54:35</t>
+          <t>2022-02-02 23:57:15</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1085.0</t>
+          <t>1091.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-01-26 23:45:20</t>
+          <t>2022-02-02 23:41:33</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1079.0</t>
+          <t>1085.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-01-27 08:30:55</t>
+          <t>2022-02-03 00:31:20</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1085.0</t>
+          <t>1091.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-01-26 23:45:58</t>
+          <t>2022-02-02 23:40:33</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>1085.0</t>
+          <t>1091.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-01-27 00:03:19</t>
+          <t>2022-02-03 00:15:02</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1083.0</t>
+          <t>1089.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-01-27 07:24:01</t>
+          <t>2022-02-03 08:21:42</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1085.0</t>
+          <t>1091.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-01-28 08:27:38</t>
+          <t>2022-02-02 23:56:27</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1083.0</t>
+          <t>1089.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-01-27 07:23:18</t>
+          <t>2022-02-03 06:49:31</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1085.0</t>
+          <t>1091.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-01-27 04:31:13</t>
+          <t>2022-02-03 04:10:27</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1086.0</t>
+          <t>1092.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-02-03 07:17:28</t>
+          <t>2022-02-08 12:35:49</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1083.0</t>
+          <t>1081.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-01-27 15:37:42</t>
+          <t>2022-02-03 16:56:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1076.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-01-27 15:38:25</t>
+          <t>2022-02-03 16:56:38</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-01-27 11:09:53</t>
+          <t>2022-02-03 09:01:54</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1076.0</t>
+          <t>1082.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-01-27 19:15:35</t>
+          <t>2022-02-04 08:19:48</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-01-29 17:00:12</t>
+          <t>2022-02-03 09:10:21</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1077.0</t>
+          <t>1084.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-01-27 09:25:09</t>
+          <t>2022-02-03 11:12:36</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1076.0</t>
+          <t>1082.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-01-27 10:22:18</t>
+          <t>2022-02-03 09:30:31</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1076.0</t>
+          <t>1082.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-01-27 16:46:09</t>
+          <t>2022-02-03 09:55:06</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1074.0</t>
+          <t>1080.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-01-27 10:04:49</t>
+          <t>2022-02-03 10:04:47</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1076.0</t>
+          <t>1082.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-01-27 10:17:56</t>
+          <t>2022-02-03 10:02:52</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1074.0</t>
+          <t>1080.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-01-27 10:06:33</t>
+          <t>2022-02-03 10:03:09</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1070.0</t>
+          <t>1076.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-01-27 10:00:42</t>
+          <t>2022-02-03 10:12:39</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1076.0</t>
+          <t>1082.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-01-27 12:57:20</t>
+          <t>2022-02-03 14:02:58</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1076.0</t>
+          <t>1082.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-01-27 07:09:14</t>
+          <t>2022-02-04 19:52:15</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-01-27 09:11:16</t>
+          <t>2022-02-03 10:12:10</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1076.0</t>
+          <t>1082.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-01-27 08:37:05</t>
+          <t>2022-02-03 09:21:48</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1077.0</t>
+          <t>1082.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-01-27 09:20:29</t>
+          <t>2022-02-03 10:02:55</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1076.0</t>
+          <t>1082.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-01-20 19:08:56</t>
+          <t>2022-02-03 16:39:49</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-01-27 14:56:46</t>
+          <t>2022-02-03 15:20:41</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1083.0</t>
+          <t>1089.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-01-27 10:49:30</t>
+          <t>2022-02-03 16:23:42</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>1079.0</t>
+          <t>1085.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-01-27 08:42:42</t>
+          <t>2022-02-03 11:05:40</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>1085.0</t>
+          <t>1091.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-01-27 09:55:59</t>
+          <t>2022-02-03 10:02:11</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1082.0</t>
+          <t>1088.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-01-27 09:03:41</t>
+          <t>2022-02-03 11:00:29</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>1085.0</t>
+          <t>1091.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-01-31 14:20:12</t>
+          <t>2022-02-03 12:25:13</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>1085.0</t>
+          <t>1092.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-02-03 04:10:27</t>
+          <t>2022-02-08 23:04:39</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1092.0</t>
+          <t>1091.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-02-08 12:35:49</t>
+          <t>2022-02-10 06:32:02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1081.0</t>
+          <t>1087.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-02-03 00:01:05</t>
+          <t>2022-02-10 00:06:39</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1082.0</t>
+          <t>1088.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-02-03 16:56:00</t>
+          <t>2022-02-10 07:23:09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1076.0</t>
+          <t>1082.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-02-03 16:56:38</t>
+          <t>2022-02-10 07:23:42</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-02-03 00:05:16</t>
+          <t>2022-02-10 00:08:28</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1082.0</t>
+          <t>1088.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-02-03 00:02:36</t>
+          <t>2022-02-10 00:36:56</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1076.0</t>
+          <t>1082.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-02-03 07:11:11</t>
+          <t>2022-02-10 06:48:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1082.0</t>
+          <t>1088.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-02-03 09:01:54</t>
+          <t>2022-02-10 09:02:29</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1082.0</t>
+          <t>1088.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-01-20 00:06:19</t>
+          <t>2022-02-10 00:05:10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-02-03 09:10:21</t>
+          <t>2022-02-10 14:27:42</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1084.0</t>
+          <t>1090.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-02-03 08:22:56</t>
+          <t>2022-02-10 08:58:27</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1082.0</t>
+          <t>1088.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-02-03 11:12:36</t>
+          <t>2022-02-10 11:27:57</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1082.0</t>
+          <t>1088.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-01-27 10:49:06</t>
+          <t>2022-02-10 10:58:46</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1076.0</t>
+          <t>1088.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-02-03 09:30:31</t>
+          <t>2022-02-10 10:24:49</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1082.0</t>
+          <t>1088.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-02-03 09:55:06</t>
+          <t>2022-02-10 09:56:02</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1080.0</t>
+          <t>1086.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-02-03 10:04:47</t>
+          <t>2022-02-10 10:02:35</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1082.0</t>
+          <t>1088.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-02-03 10:02:52</t>
+          <t>2022-02-10 10:13:14</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1080.0</t>
+          <t>1086.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-02-03 10:03:09</t>
+          <t>2022-02-10 10:03:27</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1076.0</t>
+          <t>1082.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-02-03 10:12:39</t>
+          <t>2022-02-10 09:59:17</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1082.0</t>
+          <t>1088.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-02-03 14:02:58</t>
+          <t>2022-02-10 11:41:53</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1082.0</t>
+          <t>1088.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-02-02 23:59:57</t>
+          <t>2022-02-09 23:50:15</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1082.0</t>
+          <t>1088.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-02-02 23:48:16</t>
+          <t>2022-02-09 23:46:26</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1082.0</t>
+          <t>1088.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-02-04 19:52:15</t>
+          <t>2022-02-10 08:28:38</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-02-02 22:31:45</t>
+          <t>2022-02-10 07:09:22</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-02-03 10:12:10</t>
+          <t>2022-02-10 11:11:31</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1082.0</t>
+          <t>1088.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-02-03 07:35:33</t>
+          <t>2022-02-10 07:18:42</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1082.0</t>
+          <t>1088.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-02-03 09:21:48</t>
+          <t>2022-02-10 08:20:32</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1082.0</t>
+          <t>1088.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-02-03 10:02:55</t>
+          <t>2022-02-10 09:14:58</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1082.0</t>
+          <t>1088.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-02-03 16:39:49</t>
+          <t>2022-02-10 18:18:22</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-02-03 06:33:08</t>
+          <t>2022-02-10 00:42:51</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1090.0</t>
+          <t>1096.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-02-02 23:57:15</t>
+          <t>2022-02-09 23:58:43</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1091.0</t>
+          <t>1097.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-02-02 23:41:33</t>
+          <t>2022-02-09 23:39:32</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1085.0</t>
+          <t>1091.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-02-03 00:31:20</t>
+          <t>2022-02-10 08:36:42</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1091.0</t>
+          <t>1097.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-02-02 23:40:33</t>
+          <t>2022-02-09 23:48:37</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>1091.0</t>
+          <t>1097.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-02-03 00:15:02</t>
+          <t>2022-02-10 08:36:07</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1089.0</t>
+          <t>1095.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-02-03 08:21:42</t>
+          <t>2022-02-10 07:23:57</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1091.0</t>
+          <t>1097.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-02-02 23:56:27</t>
+          <t>2022-02-09 23:44:09</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1089.0</t>
+          <t>1095.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-02-03 06:49:31</t>
+          <t>2022-02-10 07:15:55</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1091.0</t>
+          <t>1097.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-02-03 10:02:11</t>
+          <t>2022-02-10 09:56:03</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1088.0</t>
+          <t>1094.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-02-03 11:00:29</t>
+          <t>2022-02-10 11:18:13</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>1091.0</t>
+          <t>1097.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-02-03 12:25:13</t>
+          <t>2022-02-10 12:13:42</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>1092.0</t>
+          <t>1098.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-02-08 23:04:39</t>
+          <t>2022-02-10 02:30:57</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1091.0</t>
+          <t>1097.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -4656,7 +4656,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-02-03 15:20:41</t>
+          <t>2022-02-10 21:57:11</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1089.0</t>
+          <t>1095.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-02-10 02:30:57</t>
+          <t>2022-02-11 06:26:39</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1097.0</t>
+          <t>1098.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-02-04 08:19:48</t>
+          <t>2022-02-14 17:49:08</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1087.0</t>
+          <t>1089.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-02-10 06:32:02</t>
+          <t>2022-02-17 08:59:21</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1089.0</t>
+          <t>1095.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-02-10 00:06:39</t>
+          <t>2022-02-16 23:52:02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1088.0</t>
+          <t>1094.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-02-10 07:23:09</t>
+          <t>2022-02-17 00:40:32</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1082.0</t>
+          <t>1088.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-02-10 07:23:42</t>
+          <t>2022-02-17 00:41:06</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-02-10 00:08:28</t>
+          <t>2022-02-17 00:47:52</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1088.0</t>
+          <t>1094.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-02-10 00:36:56</t>
+          <t>2022-02-17 00:02:42</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1082.0</t>
+          <t>1088.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-02-10 06:48:00</t>
+          <t>2022-02-17 06:43:26</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1088.0</t>
+          <t>1094.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-02-10 09:02:29</t>
+          <t>2022-02-17 09:30:44</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1088.0</t>
+          <t>1094.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-02-10 14:27:42</t>
+          <t>2022-02-17 12:47:48</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1090.0</t>
+          <t>1096.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-02-10 08:58:27</t>
+          <t>2022-02-17 10:16:17</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1088.0</t>
+          <t>1094.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-02-10 11:27:57</t>
+          <t>2022-02-17 10:00:16</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1088.0</t>
+          <t>1094.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-02-10 10:24:49</t>
+          <t>2022-02-17 11:39:26</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1088.0</t>
+          <t>1094.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-02-10 09:56:02</t>
+          <t>2022-02-17 09:56:42</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1086.0</t>
+          <t>1092.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-02-10 10:02:35</t>
+          <t>2022-02-17 10:00:24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1088.0</t>
+          <t>1094.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-02-10 10:13:14</t>
+          <t>2022-02-17 10:04:56</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1086.0</t>
+          <t>1092.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-02-10 10:03:27</t>
+          <t>2022-02-17 09:59:06</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1082.0</t>
+          <t>1088.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-02-10 09:59:17</t>
+          <t>2022-02-17 10:00:04</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1088.0</t>
+          <t>1094.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-02-10 11:41:53</t>
+          <t>2022-02-17 12:11:21</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1088.0</t>
+          <t>1094.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-02-09 23:50:15</t>
+          <t>2022-02-17 00:02:53</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1088.0</t>
+          <t>1094.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-02-09 23:46:26</t>
+          <t>2022-02-16 23:46:43</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1088.0</t>
+          <t>1094.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-02-10 08:28:38</t>
+          <t>2022-02-17 07:11:39</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-02-10 07:09:22</t>
+          <t>2022-02-16 21:06:32</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-02-10 11:11:31</t>
+          <t>2022-02-17 09:21:43</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1088.0</t>
+          <t>1094.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-02-10 07:18:42</t>
+          <t>2022-02-17 07:17:59</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1088.0</t>
+          <t>1094.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-02-10 08:20:32</t>
+          <t>2022-02-17 09:13:40</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1088.0</t>
+          <t>1094.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-02-10 09:14:58</t>
+          <t>2022-02-18 08:10:30</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1088.0</t>
+          <t>1094.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-02-10 21:57:11</t>
+          <t>2022-02-17 14:55:46</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1095.0</t>
+          <t>1101.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-02-10 00:42:51</t>
+          <t>2022-02-17 00:21:08</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1096.0</t>
+          <t>1102.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-02-09 23:58:43</t>
+          <t>2022-02-17 00:05:04</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1097.0</t>
+          <t>1103.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-02-09 23:39:32</t>
+          <t>2022-02-16 23:30:31</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1091.0</t>
+          <t>1097.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-02-10 08:36:42</t>
+          <t>2022-02-17 01:04:15</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1097.0</t>
+          <t>1103.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-02-09 23:48:37</t>
+          <t>2022-02-16 23:47:25</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>1097.0</t>
+          <t>1103.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-02-10 08:36:07</t>
+          <t>2022-02-17 00:05:31</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1095.0</t>
+          <t>1101.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-02-03 16:23:42</t>
+          <t>2022-02-17 00:59:15</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>1085.0</t>
+          <t>1097.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-02-10 07:23:57</t>
+          <t>2022-02-17 07:48:59</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1097.0</t>
+          <t>1103.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-02-03 11:05:40</t>
+          <t>2022-02-17 10:04:52</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>1091.0</t>
+          <t>1103.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-02-09 23:44:09</t>
+          <t>2022-02-16 23:52:19</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1095.0</t>
+          <t>1101.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-02-10 07:15:55</t>
+          <t>2022-02-17 08:12:39</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1097.0</t>
+          <t>1103.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-02-10 09:56:03</t>
+          <t>2022-02-17 09:56:22</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1094.0</t>
+          <t>1100.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-02-10 11:18:13</t>
+          <t>2022-02-17 09:39:25</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>1097.0</t>
+          <t>1103.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-02-11 06:26:39</t>
+          <t>2022-02-17 04:31:38</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1098.0</t>
+          <t>1104.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1095.0</t>
+          <t>1096.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-02-10 10:58:46</t>
+          <t>2022-02-18 09:56:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1088.0</t>
+          <t>1094.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-02-10 12:13:42</t>
+          <t>2022-02-18 10:40:11</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>1098.0</t>
+          <t>1104.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-02-17 08:59:21</t>
+          <t>2022-02-22 10:22:19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1096.0</t>
+          <t>1097.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-02-16 23:52:02</t>
+          <t>2022-02-24 00:01:41</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1094.0</t>
+          <t>1100.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-02-17 00:40:32</t>
+          <t>2022-02-24 07:21:32</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1088.0</t>
+          <t>1094.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-02-17 00:41:06</t>
+          <t>2022-02-24 07:22:38</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-02-17 00:47:52</t>
+          <t>2022-02-23 23:46:54</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1094.0</t>
+          <t>1100.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-02-17 00:02:42</t>
+          <t>2022-02-24 00:05:49</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1088.0</t>
+          <t>1094.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-02-17 06:43:26</t>
+          <t>2022-02-24 06:54:40</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1094.0</t>
+          <t>1100.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-02-17 00:02:53</t>
+          <t>2022-02-23 23:47:21</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1094.0</t>
+          <t>1100.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-02-16 23:46:43</t>
+          <t>2022-02-24 00:12:42</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1094.0</t>
+          <t>1100.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-02-16 21:06:32</t>
+          <t>2022-02-23 22:13:26</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-02-17 07:17:59</t>
+          <t>2022-02-24 07:22:59</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1094.0</t>
+          <t>1100.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-02-17 00:21:08</t>
+          <t>2022-02-24 01:37:42</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1102.0</t>
+          <t>1108.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-02-17 00:05:04</t>
+          <t>2022-02-24 00:37:32</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1103.0</t>
+          <t>1109.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-02-16 23:30:31</t>
+          <t>2022-02-23 23:36:45</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1097.0</t>
+          <t>1103.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-02-17 01:04:15</t>
+          <t>2022-02-24 00:08:24</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1103.0</t>
+          <t>1109.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-02-16 23:47:25</t>
+          <t>2022-02-23 23:46:40</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>1103.0</t>
+          <t>1109.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-02-17 00:05:31</t>
+          <t>2022-02-24 00:48:19</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1101.0</t>
+          <t>1107.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-02-17 07:48:59</t>
+          <t>2022-02-24 07:36:16</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1103.0</t>
+          <t>1109.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-02-16 23:52:19</t>
+          <t>2022-02-23 23:42:47</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1101.0</t>
+          <t>1107.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-02-17 08:12:39</t>
+          <t>2022-02-24 07:10:29</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1103.0</t>
+          <t>1109.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-02-17 04:31:38</t>
+          <t>2022-02-24 03:18:07</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1104.0</t>
+          <t>1110.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-02-22 10:22:19</t>
+          <t>2022-02-24 16:59:08</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1097.0</t>
+          <t>1103.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-02-17 09:30:44</t>
+          <t>2022-02-24 08:55:39</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1094.0</t>
+          <t>1100.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-02-17 12:47:48</t>
+          <t>2022-02-24 08:48:04</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1096.0</t>
+          <t>1102.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-02-17 10:16:17</t>
+          <t>2022-02-24 11:07:21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1094.0</t>
+          <t>1100.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-02-17 10:00:16</t>
+          <t>2022-02-24 12:03:46</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1094.0</t>
+          <t>1100.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-02-17 11:39:26</t>
+          <t>2022-02-24 11:44:07</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1094.0</t>
+          <t>1100.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-02-17 09:56:42</t>
+          <t>2022-02-24 10:00:52</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1092.0</t>
+          <t>1098.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-02-17 10:00:24</t>
+          <t>2022-02-24 10:05:25</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1094.0</t>
+          <t>1100.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-02-17 10:04:56</t>
+          <t>2022-02-24 10:11:22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1092.0</t>
+          <t>1098.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-02-17 09:59:06</t>
+          <t>2022-02-24 10:03:38</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1088.0</t>
+          <t>1094.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-02-17 10:00:04</t>
+          <t>2022-02-24 10:00:05</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1094.0</t>
+          <t>1100.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-02-17 12:11:21</t>
+          <t>2022-02-24 09:02:05</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1094.0</t>
+          <t>1100.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-02-17 07:11:39</t>
+          <t>2022-02-24 14:06:36</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-02-17 09:21:43</t>
+          <t>2022-02-24 08:47:13</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1094.0</t>
+          <t>1100.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-02-17 09:13:40</t>
+          <t>2022-02-24 08:25:51</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1094.0</t>
+          <t>1100.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-02-18 08:10:30</t>
+          <t>2022-02-24 11:29:22</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1094.0</t>
+          <t>1100.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-02-10 18:18:22</t>
+          <t>2022-02-24 15:54:32</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-02-17 14:55:46</t>
+          <t>2022-02-24 14:55:40</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1101.0</t>
+          <t>1107.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-02-17 10:04:52</t>
+          <t>2022-02-24 09:17:07</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>1103.0</t>
+          <t>1109.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-02-17 09:56:22</t>
+          <t>2022-02-24 10:11:20</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1100.0</t>
+          <t>1106.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-02-17 09:39:25</t>
+          <t>2022-02-24 09:04:00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>1103.0</t>
+          <t>1109.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-02-18 09:56:00</t>
+          <t>2022-02-25 09:36:02</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1094.0</t>
+          <t>1100.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-01-10 18:38:44</t>
+          <t>2022-02-25 18:42:54</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-02-17 00:59:15</t>
+          <t>2022-02-25 15:50:49</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>1097.0</t>
+          <t>1103.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-02-24 16:59:08</t>
+          <t>2022-02-28 14:09:09</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1103.0</t>
+          <t>1101.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-02-24 00:01:41</t>
+          <t>2022-03-03 00:01:25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1100.0</t>
+          <t>1107.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-02-24 07:21:32</t>
+          <t>2022-03-03 01:19:30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1094.0</t>
+          <t>1101.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-02-24 07:22:38</t>
+          <t>2022-03-03 01:20:44</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-02-23 23:46:54</t>
+          <t>2022-03-02 22:35:16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1100.0</t>
+          <t>1107.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-02-24 00:05:49</t>
+          <t>2022-03-03 07:59:55</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1094.0</t>
+          <t>1101.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-02-24 06:54:40</t>
+          <t>2022-03-03 06:52:45</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1100.0</t>
+          <t>1107.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-02-10 00:05:10</t>
+          <t>2022-03-03 00:28:19</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-02-23 23:47:21</t>
+          <t>2022-03-02 23:43:50</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1100.0</t>
+          <t>1107.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-02-24 00:12:42</t>
+          <t>2022-03-02 23:49:45</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1100.0</t>
+          <t>1107.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-02-24 14:06:36</t>
+          <t>2022-03-02 22:58:27</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-02-23 22:13:26</t>
+          <t>2022-03-02 20:43:48</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-02-24 07:22:59</t>
+          <t>2022-03-03 07:26:45</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1100.0</t>
+          <t>1107.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-02-24 00:37:32</t>
+          <t>2022-03-02 23:58:50</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1109.0</t>
+          <t>1117.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-02-23 23:36:45</t>
+          <t>2022-03-02 23:31:28</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1103.0</t>
+          <t>1110.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-02-24 00:08:24</t>
+          <t>2022-03-03 00:57:52</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1109.0</t>
+          <t>1116.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-02-23 23:46:40</t>
+          <t>2022-03-02 23:44:01</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>1109.0</t>
+          <t>1116.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-02-24 00:48:19</t>
+          <t>2022-03-03 00:03:05</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1107.0</t>
+          <t>1114.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-02-24 07:36:16</t>
+          <t>2022-03-03 07:31:13</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1109.0</t>
+          <t>1116.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-02-23 23:42:47</t>
+          <t>2022-03-02 23:45:23</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1107.0</t>
+          <t>1114.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-02-24 07:10:29</t>
+          <t>2022-03-03 06:53:28</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1109.0</t>
+          <t>1116.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-02-24 03:18:07</t>
+          <t>2022-03-03 02:12:16</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1110.0</t>
+          <t>1116.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-02-28 14:09:09</t>
+          <t>2022-03-03 10:35:57</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1101.0</t>
+          <t>1108.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-02-24 08:55:39</t>
+          <t>2022-03-03 08:50:15</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1100.0</t>
+          <t>1107.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-02-24 08:48:04</t>
+          <t>2022-03-03 09:25:52</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1102.0</t>
+          <t>1109.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-02-24 11:07:21</t>
+          <t>2022-03-03 10:18:55</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1100.0</t>
+          <t>1107.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-02-24 12:03:46</t>
+          <t>2022-03-03 09:35:37</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1100.0</t>
+          <t>1107.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-02-25 09:36:02</t>
+          <t>2022-03-03 09:42:25</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1100.0</t>
+          <t>1107.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-02-24 11:44:07</t>
+          <t>2022-03-03 11:39:48</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1100.0</t>
+          <t>1107.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-02-24 10:00:52</t>
+          <t>2022-03-03 09:49:06</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1098.0</t>
+          <t>1105.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-02-24 10:05:25</t>
+          <t>2022-03-03 10:12:14</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1100.0</t>
+          <t>1107.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-02-24 10:11:22</t>
+          <t>2022-03-03 09:58:48</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1098.0</t>
+          <t>1105.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-02-24 10:03:38</t>
+          <t>2022-03-03 10:13:27</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1094.0</t>
+          <t>1101.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-02-24 10:00:05</t>
+          <t>2022-03-03 10:00:04</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1100.0</t>
+          <t>1107.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-02-24 09:02:05</t>
+          <t>2022-03-03 14:29:58</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1100.0</t>
+          <t>1107.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-02-24 08:47:13</t>
+          <t>2022-03-03 09:12:05</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1100.0</t>
+          <t>1107.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-02-24 08:25:51</t>
+          <t>2022-03-03 10:59:01</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1100.0</t>
+          <t>1107.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-02-24 11:29:22</t>
+          <t>2022-03-03 17:19:18</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1100.0</t>
+          <t>1107.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-02-24 15:54:32</t>
+          <t>2022-03-03 15:54:11</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-02-25 15:50:49</t>
+          <t>2022-03-03 13:29:28</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>1103.0</t>
+          <t>1110.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-02-24 09:17:07</t>
+          <t>2022-03-03 11:24:21</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>1109.0</t>
+          <t>1116.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-02-24 10:11:20</t>
+          <t>2022-03-03 10:13:15</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1106.0</t>
+          <t>1113.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-02-24 09:04:00</t>
+          <t>2022-03-03 09:02:40</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>1109.0</t>
+          <t>1116.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-02-14 17:49:08</t>
+          <t>2022-03-04 08:57:55</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-02-18 10:40:11</t>
+          <t>2022-03-04 09:42:32</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>1104.0</t>
+          <t>1117.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -4656,7 +4656,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-02-24 14:55:40</t>
+          <t>2022-03-04 14:04:13</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1107.0</t>
+          <t>1114.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-02-24 01:37:42</t>
+          <t>2022-03-04 14:15:02</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1108.0</t>
+          <t>1115.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1117.0</t>
+          <t>1116.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-03-03 10:35:57</t>
+          <t>2022-03-08 14:16:46</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1108.0</t>
+          <t>1110.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>COMERCIAL MALLKU LTDA. RUT: 76842810-7</t>
+          <t>COMERCIAL ELIZABETH OCARANZA LTDA.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-03-02 20:43:48</t>
+          <t>2022-03-09 19:26:24</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-03-04 09:42:32</t>
+          <t>2022-03-08 12:26:58</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-03-08 14:16:46</t>
+          <t>2022-03-10 07:31:35</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1110.0</t>
+          <t>1116.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-03-03 00:01:25</t>
+          <t>2022-03-10 05:38:47</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1107.0</t>
+          <t>1113.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-03-03 01:19:30</t>
+          <t>2022-03-10 06:32:51</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1101.0</t>
+          <t>1107.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-03-03 01:20:44</t>
+          <t>2022-03-10 06:33:29</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-03-02 22:35:16</t>
+          <t>2022-03-09 22:50:08</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1107.0</t>
+          <t>1113.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-03-03 07:59:55</t>
+          <t>2022-03-10 00:57:23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1101.0</t>
+          <t>1107.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-03-03 06:52:45</t>
+          <t>2022-03-10 06:52:17</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1107.0</t>
+          <t>1113.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-03-03 00:28:19</t>
+          <t>2022-03-10 00:12:36</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-03-02 23:43:50</t>
+          <t>2022-03-09 23:43:07</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1107.0</t>
+          <t>1113.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-03-02 23:49:45</t>
+          <t>2022-03-09 23:57:11</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1107.0</t>
+          <t>1113.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-03-02 22:58:27</t>
+          <t>2022-03-09 23:42:03</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-03-03 09:12:05</t>
+          <t>2022-03-10 08:45:04</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1107.0</t>
+          <t>1113.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-03-03 07:26:45</t>
+          <t>2022-03-10 07:20:36</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1107.0</t>
+          <t>1113.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-03-03 10:59:01</t>
+          <t>2022-03-10 08:34:34</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1107.0</t>
+          <t>1113.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-03-02 23:58:50</t>
+          <t>2022-03-10 00:00:53</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1116.0</t>
+          <t>1122.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-03-02 23:31:28</t>
+          <t>2022-03-09 23:30:54</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1110.0</t>
+          <t>1116.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-03-03 00:57:52</t>
+          <t>2022-03-10 08:09:05</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1116.0</t>
+          <t>1122.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-03-02 23:44:01</t>
+          <t>2022-03-09 23:47:22</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>1116.0</t>
+          <t>1122.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-03-03 00:03:05</t>
+          <t>2022-03-09 23:41:13</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1114.0</t>
+          <t>1120.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-03-03 07:31:13</t>
+          <t>2022-03-10 07:47:29</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1116.0</t>
+          <t>1122.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-03-02 23:45:23</t>
+          <t>2022-03-09 23:50:51</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1114.0</t>
+          <t>1120.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-03-03 06:53:28</t>
+          <t>2022-03-10 06:56:58</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1116.0</t>
+          <t>1122.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-03-03 02:12:16</t>
+          <t>2022-03-10 04:39:46</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1116.0</t>
+          <t>1122.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-03-03 08:50:15</t>
+          <t>2022-03-10 09:46:53</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1107.0</t>
+          <t>1113.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-03-04 08:57:55</t>
+          <t>2022-03-10 20:31:22</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-03-03 09:25:52</t>
+          <t>2022-03-10 12:15:06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1109.0</t>
+          <t>1115.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-03-03 10:18:55</t>
+          <t>2022-03-10 10:35:11</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1107.0</t>
+          <t>1113.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-03-03 09:42:25</t>
+          <t>2022-03-10 09:31:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1107.0</t>
+          <t>1113.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-03-03 11:39:48</t>
+          <t>2022-03-10 11:28:30</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1107.0</t>
+          <t>1113.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-03-03 09:49:06</t>
+          <t>2022-03-10 09:53:33</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1105.0</t>
+          <t>1111.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-03-03 10:12:14</t>
+          <t>2022-03-10 10:07:53</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1107.0</t>
+          <t>1113.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-03-03 09:58:48</t>
+          <t>2022-03-10 09:54:36</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1105.0</t>
+          <t>1111.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-03-03 10:13:27</t>
+          <t>2022-03-10 10:09:23</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1101.0</t>
+          <t>1107.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-03-03 10:00:04</t>
+          <t>2022-03-10 10:00:11</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1107.0</t>
+          <t>1113.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-02-25 18:42:54</t>
+          <t>2022-03-10 10:54:58</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-03-03 14:29:58</t>
+          <t>2022-03-10 12:25:59</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1107.0</t>
+          <t>1113.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-03-03 17:19:18</t>
+          <t>2022-03-10 09:11:15</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1107.0</t>
+          <t>1113.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-03-03 15:54:11</t>
+          <t>2022-03-10 15:08:26</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-03-04 14:04:13</t>
+          <t>2022-03-10 15:00:35</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1114.0</t>
+          <t>1120.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-03-03 11:24:21</t>
+          <t>2022-03-10 10:17:43</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>1116.0</t>
+          <t>1122.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-03-03 10:13:15</t>
+          <t>2022-03-10 10:02:07</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1113.0</t>
+          <t>1119.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-03-03 09:02:40</t>
+          <t>2022-03-10 16:30:22</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>1116.0</t>
+          <t>1122.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-03-08 12:26:58</t>
+          <t>2022-03-10 11:33:38</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>1117.0</t>
+          <t>1123.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-03-04 14:15:02</t>
+          <t>2022-03-10 22:37:21</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1115.0</t>
+          <t>1121.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -3152,7 +3152,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-03-10 10:54:58</t>
+          <t>2022-03-11 17:29:04</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-03-10 08:09:05</t>
+          <t>2022-03-11 18:24:10</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-03-03 13:29:28</t>
+          <t>2022-03-11 17:02:49</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>1110.0</t>
+          <t>1116.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-03-03 09:35:37</t>
+          <t>2022-03-14 12:07:07</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1107.0</t>
+          <t>1113.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-03-10 07:31:35</t>
+          <t>2022-03-17 07:17:14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1116.0</t>
+          <t>1122.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-03-10 05:38:47</t>
+          <t>2022-03-16 23:02:18</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1113.0</t>
+          <t>1119.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-03-10 06:32:51</t>
+          <t>2022-03-17 00:24:10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1107.0</t>
+          <t>1113.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-03-10 06:33:29</t>
+          <t>2022-03-17 00:24:56</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-03-09 22:50:08</t>
+          <t>2022-03-16 23:58:27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1113.0</t>
+          <t>1119.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-03-10 00:57:23</t>
+          <t>2022-03-17 09:42:42</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1107.0</t>
+          <t>1113.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-03-10 06:52:17</t>
+          <t>2022-03-17 06:45:08</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1113.0</t>
+          <t>1119.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-03-10 09:46:53</t>
+          <t>2022-03-17 09:13:45</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1113.0</t>
+          <t>1119.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-03-10 00:12:36</t>
+          <t>2022-03-17 00:06:06</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-03-10 20:31:22</t>
+          <t>2022-03-17 08:27:34</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-03-10 12:15:06</t>
+          <t>2022-03-17 09:06:14</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1115.0</t>
+          <t>1121.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-03-10 10:35:11</t>
+          <t>2022-03-17 10:05:52</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1113.0</t>
+          <t>1119.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-03-14 12:07:07</t>
+          <t>2022-03-17 09:21:11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1113.0</t>
+          <t>1119.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-03-10 11:28:30</t>
+          <t>2022-03-17 12:41:37</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1113.0</t>
+          <t>1119.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-03-10 09:53:33</t>
+          <t>2022-03-17 10:24:27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1111.0</t>
+          <t>1118.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-03-10 10:07:53</t>
+          <t>2022-03-17 10:10:10</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1113.0</t>
+          <t>1120.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-03-10 09:54:36</t>
+          <t>2022-03-17 09:59:06</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1111.0</t>
+          <t>1118.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-03-10 10:09:23</t>
+          <t>2022-03-17 10:08:05</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1107.0</t>
+          <t>1114.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-03-10 10:00:11</t>
+          <t>2022-03-17 10:00:03</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1113.0</t>
+          <t>1120.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-03-10 12:25:59</t>
+          <t>2022-03-17 13:52:56</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1113.0</t>
+          <t>1119.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-03-09 23:43:07</t>
+          <t>2022-03-16 23:30:27</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1113.0</t>
+          <t>1119.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-03-09 23:57:11</t>
+          <t>2022-03-16 23:45:24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1113.0</t>
+          <t>1119.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-03-09 23:42:03</t>
+          <t>2022-03-17 07:18:02</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-03-09 19:26:24</t>
+          <t>2022-03-16 20:35:31</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-03-10 08:45:04</t>
+          <t>2022-03-17 08:26:17</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1113.0</t>
+          <t>1120.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-03-10 07:20:36</t>
+          <t>2022-03-17 07:23:26</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1113.0</t>
+          <t>1119.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-03-10 08:34:34</t>
+          <t>2022-03-17 10:15:26</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1113.0</t>
+          <t>1119.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-03-10 09:11:15</t>
+          <t>2022-03-17 09:52:59</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1113.0</t>
+          <t>1119.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-03-10 15:08:26</t>
+          <t>2022-03-17 16:09:07</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-03-10 15:00:35</t>
+          <t>2022-03-17 15:02:32</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1120.0</t>
+          <t>1126.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-03-10 22:37:21</t>
+          <t>2022-03-17 14:39:04</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1121.0</t>
+          <t>1127.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-03-10 00:00:53</t>
+          <t>2022-03-16 23:59:13</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1122.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-03-09 23:30:54</t>
+          <t>2022-03-16 23:32:47</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1116.0</t>
+          <t>1122.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-03-11 18:24:10</t>
+          <t>2022-03-17 00:05:11</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1122.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-03-09 23:47:22</t>
+          <t>2022-03-16 23:44:03</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>1122.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-03-09 23:41:13</t>
+          <t>2022-03-17 00:04:26</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1120.0</t>
+          <t>1126.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-03-11 17:02:49</t>
+          <t>2022-03-17 12:05:09</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>1116.0</t>
+          <t>1122.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-03-10 07:47:29</t>
+          <t>2022-03-17 09:11:07</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1122.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-03-10 10:17:43</t>
+          <t>2022-03-17 14:08:03</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>1122.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-03-09 23:50:51</t>
+          <t>2022-03-16 23:43:16</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1120.0</t>
+          <t>1126.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-03-10 06:56:58</t>
+          <t>2022-03-17 09:04:02</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1122.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-03-10 10:02:07</t>
+          <t>2022-03-17 10:04:18</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1119.0</t>
+          <t>1126.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-03-10 16:30:22</t>
+          <t>2022-03-17 09:19:53</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>1122.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-03-10 04:39:46</t>
+          <t>2022-03-17 01:25:25</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1122.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-03-17 07:17:14</t>
+          <t>2022-03-18 12:35:11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-03-10 09:31:00</t>
+          <t>2022-03-18 09:37:57</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1113.0</t>
+          <t>1119.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-03-11 17:29:04</t>
+          <t>2022-03-18 16:29:31</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-03-18 12:35:11</t>
+          <t>2022-03-21 14:07:18</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1122.0</t>
+          <t>1119.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-03-17 10:24:27</t>
+          <t>2022-03-21 12:09:51</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1118.0</t>
+          <t>1117.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-03-17 10:10:10</t>
+          <t>2022-03-21 13:05:58</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1120.0</t>
+          <t>1119.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-03-17 09:59:06</t>
+          <t>2022-03-21 12:05:41</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1118.0</t>
+          <t>1117.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-03-17 10:08:05</t>
+          <t>2022-03-21 12:16:24</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1114.0</t>
+          <t>1113.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-03-17 10:00:03</t>
+          <t>2022-03-21 12:07:23</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1120.0</t>
+          <t>1119.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-03-17 10:04:18</t>
+          <t>2022-03-21 12:14:37</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -2399,7 +2399,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>INVERSIONES ISP SPA.</t>
+          <t>DISTRIBUIDORA Y COMERCIALIZADORA DE COMBUSTIBLE Y LUBRICANTES ALBA SPA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-03-17 07:18:02</t>
+          <t>2022-03-23 21:03:39</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-03-16 23:02:18</t>
+          <t>2022-03-23 22:56:50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1119.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-03-17 00:24:10</t>
+          <t>2022-03-24 07:51:54</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1113.0</t>
+          <t>1122.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-03-17 00:24:56</t>
+          <t>2022-03-24 07:52:34</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-03-16 23:58:27</t>
+          <t>2022-03-24 03:46:40</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1119.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-03-17 09:42:42</t>
+          <t>2022-03-24 00:14:24</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1113.0</t>
+          <t>1122.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-03-17 06:45:08</t>
+          <t>2022-03-24 06:54:40</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1119.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-03-17 00:06:06</t>
+          <t>2022-03-24 01:31:08</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-03-16 23:30:27</t>
+          <t>2022-03-23 23:33:12</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1119.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-03-16 23:45:24</t>
+          <t>2022-03-24 00:01:36</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1119.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-03-16 20:35:31</t>
+          <t>2022-03-23 22:18:52</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-03-17 07:23:26</t>
+          <t>2022-03-24 07:23:55</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1119.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-03-17 14:39:04</t>
+          <t>2022-03-23 23:36:02</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1127.0</t>
+          <t>1136.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-03-16 23:59:13</t>
+          <t>2022-03-24 00:28:27</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1137.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-03-16 23:32:47</t>
+          <t>2022-03-23 23:51:42</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1122.0</t>
+          <t>1131.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-03-17 00:05:11</t>
+          <t>2022-03-24 01:12:25</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1137.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-03-16 23:44:03</t>
+          <t>2022-03-23 23:45:17</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1137.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-03-17 00:04:26</t>
+          <t>2022-03-24 00:20:03</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1126.0</t>
+          <t>1135.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-03-17 12:05:09</t>
+          <t>2022-03-24 01:49:29</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>1122.0</t>
+          <t>1131.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-03-16 23:43:16</t>
+          <t>2022-03-23 23:43:01</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1126.0</t>
+          <t>1135.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-03-17 09:04:02</t>
+          <t>2022-03-24 06:54:10</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1137.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-03-17 01:25:25</t>
+          <t>2022-03-24 01:33:18</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1137.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-03-21 14:07:18</t>
+          <t>2022-03-24 09:52:08</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1119.0</t>
+          <t>1131.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-03-17 09:13:45</t>
+          <t>2022-03-24 10:06:32</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1119.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-03-17 09:06:14</t>
+          <t>2022-03-24 08:36:57</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1121.0</t>
+          <t>1130.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-03-18 09:37:57</t>
+          <t>2022-03-24 09:50:14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1119.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-03-17 12:41:37</t>
+          <t>2022-03-24 11:47:47</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1119.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-03-21 12:09:51</t>
+          <t>2022-03-24 11:13:51</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1117.0</t>
+          <t>1126.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-03-21 13:05:58</t>
+          <t>2022-03-24 10:03:34</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1119.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-03-21 12:05:41</t>
+          <t>2022-03-24 10:20:53</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1117.0</t>
+          <t>1126.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-03-21 12:16:24</t>
+          <t>2022-03-24 10:05:32</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1113.0</t>
+          <t>1122.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-03-21 12:07:23</t>
+          <t>2022-03-24 10:00:05</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1119.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-03-17 13:52:56</t>
+          <t>2022-03-24 08:25:59</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1119.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-03-17 08:26:17</t>
+          <t>2022-03-24 08:50:40</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1120.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-03-17 10:15:26</t>
+          <t>2022-03-24 08:28:34</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1119.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-03-17 09:52:59</t>
+          <t>2022-03-24 12:43:59</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1119.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-03-17 16:09:07</t>
+          <t>2022-03-24 16:03:41</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-03-17 15:02:32</t>
+          <t>2022-03-24 14:51:20</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1126.0</t>
+          <t>1135.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-03-17 09:11:07</t>
+          <t>2022-03-24 09:59:39</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1137.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-03-17 14:08:03</t>
+          <t>2022-03-24 08:33:37</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1137.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-03-21 12:14:37</t>
+          <t>2022-03-24 10:03:00</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1126.0</t>
+          <t>1135.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-03-17 09:19:53</t>
+          <t>2022-03-24 08:33:40</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1137.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-03-10 11:33:38</t>
+          <t>2022-03-24 10:44:32</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>1123.0</t>
+          <t>1138.0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-03-17 09:21:11</t>
+          <t>2022-03-25 09:44:28</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1119.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1135.0</t>
+          <t>1134.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-03-24 09:52:08</t>
+          <t>2022-03-26 11:34:14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-03-17 10:05:52</t>
+          <t>2022-03-28 20:33:07</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1119.0</t>
+          <t>1128.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">

--- a/combustibles_vehicular_estaciones_gasolina97.xlsx
+++ b/combustibles_vehicular_estaciones_gasolina97.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-03-26 11:34:14</t>
+          <t>2022-03-31 09:49:35</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1131.0</t>
+          <t>1142.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-03-23 22:56:50</t>
+          <t>2022-03-30 23:32:05</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1140.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-03-24 07:51:54</t>
+          <t>2022-03-31 00:39:12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1122.0</t>
+          <t>1134.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-03-24 07:52:34</t>
+          <t>2022-03-31 00:39:51</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-03-24 03:46:40</t>
+          <t>2022-03-31 12:15:48</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1140.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-03-24 00:14:24</t>
+          <t>2022-03-31 00:18:27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1122.0</t>
+          <t>1134.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-03-24 06:54:40</t>
+          <t>2022-03-31 06:54:33</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1140.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-03-24 10:06:32</t>
+          <t>2022-03-31 14:54:29</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1140.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-03-24 01:31:08</t>
+          <t>2022-03-31 00:07:49</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-03-17 08:27:34</t>
+          <t>2022-03-31 09:26:35</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-03-24 08:36:57</t>
+          <t>2022-03-31 08:53:11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1130.0</t>
+          <t>1142.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-03-28 20:33:07</t>
+          <t>2022-03-31 11:09:17</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1140.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-03-25 09:44:28</t>
+          <t>2022-03-31 09:30:21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1140.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-03-24 09:50:14</t>
+          <t>2022-03-31 09:22:23</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1140.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-03-24 11:47:47</t>
+          <t>2022-03-31 10:18:27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1140.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-03-24 11:13:51</t>
+          <t>2022-03-31 10:00:08</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1126.0</t>
+          <t>1138.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-03-24 10:03:34</t>
+          <t>2022-03-31 10:05:36</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1140.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-03-24 10:20:53</t>
+          <t>2022-03-31 09:56:43</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1126.0</t>
+          <t>1138.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-03-24 10:05:32</t>
+          <t>2022-03-31 10:11:27</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1122.0</t>
+          <t>1134.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-03-24 10:00:05</t>
+          <t>2022-03-31 10:00:09</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1140.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-03-24 08:25:59</t>
+          <t>2022-03-31 08:35:38</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1140.0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-03-23 23:33:12</t>
+          <t>2022-03-30 23:41:20</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1140.0</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-03-24 00:01:36</t>
+          <t>2022-03-31 00:05:08</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1140.0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-03-23 21:03:39</t>
+          <t>2022-03-31 07:08:52</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-03-23 22:18:52</t>
+          <t>2022-03-30 21:51:01</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-03-24 08:50:40</t>
+          <t>2022-03-31 11:40:41</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1140.0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-03-24 07:23:55</t>
+          <t>2022-03-31 07:24:33</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1140.0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-03-24 08:28:34</t>
+          <t>2022-03-31 08:50:10</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1140.0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-03-24 12:43:59</t>
+          <t>2022-03-31 13:41:35</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1128.0</t>
+          <t>1140.0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-03-24 16:03:41</t>
+          <t>2022-03-31 16:35:28</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-03-24 14:51:20</t>
+          <t>2022-03-31 14:51:37</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1135.0</t>
+          <t>1147.0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-03-23 23:36:02</t>
+          <t>2022-03-30 23:57:31</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1136.0</t>
+          <t>1148.0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-03-24 00:28:27</t>
+          <t>2022-03-31 01:16:45</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1137.0</t>
+          <t>1149.0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-03-23 23:51:42</t>
+          <t>2022-03-31 00:03:17</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1131.0</t>
+          <t>1143.0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-03-24 01:12:25</t>
+          <t>2022-03-31 15:52:33</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1137.0</t>
+          <t>1149.0</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-03-23 23:45:17</t>
+          <t>2022-03-30 23:46:51</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>1137.0</t>
+          <t>1149.0</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-03-24 00:20:03</t>
+          <t>2022-03-30 23:59:49</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1135.0</t>
+          <t>1147.0</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-03-24 01:49:29</t>
+          <t>2022-03-31 17:57:33</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>1131.0</t>
+          <t>1143.0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-03-24 09:59:39</t>
+          <t>2022-03-31 09:15:55</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1137.0</t>
+          <t>1149.0</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-03-24 08:33:37</t>
+          <t>2022-03-31 11:22:31</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>1137.0</t>
+          <t>1149.0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-03-23 23:43:01</t>
+          <t>2022-03-30 23:52:48</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1135.0</t>
+          <t>1147.0</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-03-24 06:54:10</t>
+          <t>2022-03-31 07:05:44</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1137.0</t>
+          <t>1149.0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-03-24 10:03:00</t>
+          <t>2022-03-31 09:56:54</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1134.0</t>
+          <t>1146.0</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-03-24 08:33:40</t>
+          <t>2022-03-31 08:58:24</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>1137.0</t>
+          <t>1149.0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-03-24 01:33:18</t>
+          <t>2022-03-31 01:51:04</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1137.0</t>
+          <t>1149.0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
